--- a/REGULAR/ONT/OSTONAL, IVY  SANGALANG.xlsx
+++ b/REGULAR/ONT/OSTONAL, IVY  SANGALANG.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
   <si>
     <t>PERIOD</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>01/04-06/2024</t>
   </si>
 </sst>
 </file>
@@ -2776,7 +2782,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K275" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K276" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3154,12 +3160,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K275"/>
+  <dimension ref="A2:K276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4065" topLeftCell="A142" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K153" sqref="K153"/>
+      <selection pane="bottomLeft" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3322,7 +3328,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>38.869</v>
+        <v>38.119</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3332,7 +3338,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>68.375</v>
+        <v>66.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6464,15 +6470,17 @@
       <c r="B153" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C153" s="13"/>
+      <c r="C153" s="41">
+        <v>1.25</v>
+      </c>
       <c r="D153" s="39">
         <v>1</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
-      <c r="G153" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G153" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
@@ -6482,12 +6490,14 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="39"/>
+      <c r="A154" s="40"/>
+      <c r="B154" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C154" s="41"/>
+      <c r="D154" s="39">
+        <v>2</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
       <c r="G154" s="13" t="str">
@@ -6497,11 +6507,11 @@
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
+      <c r="K154" s="50"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="40">
-        <v>45292</v>
+      <c r="A155" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6519,9 +6529,11 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B156" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
@@ -6530,14 +6542,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H156" s="39"/>
+      <c r="H156" s="39">
+        <v>3</v>
+      </c>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="20"/>
+      <c r="K156" s="20" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6555,7 +6571,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -6573,7 +6589,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -6591,7 +6607,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -6609,7 +6625,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -6627,7 +6643,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -6645,7 +6661,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -6663,7 +6679,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -6681,7 +6697,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -6699,7 +6715,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -6717,7 +6733,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -6734,7 +6750,9 @@
       <c r="K167" s="20"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
+      <c r="A168" s="40">
+        <v>45658</v>
+      </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
       <c r="D168" s="39"/>
@@ -8446,20 +8464,36 @@
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="52"/>
-      <c r="B275" s="15"/>
-      <c r="C275" s="41"/>
-      <c r="D275" s="42"/>
+      <c r="A275" s="40"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="39"/>
       <c r="E275" s="9"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H275" s="42"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H275" s="39"/>
       <c r="I275" s="9"/>
-      <c r="J275" s="12"/>
-      <c r="K275" s="15"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="20"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="52"/>
+      <c r="B276" s="15"/>
+      <c r="C276" s="41"/>
+      <c r="D276" s="42"/>
+      <c r="E276" s="9"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H276" s="42"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="12"/>
+      <c r="K276" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
